--- a/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
+++ b/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdam007/PycharmProjects/vork-trbs/trbs/src/vlinder/data/Refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FCBF3-1EAE-0543-B25E-9A26D4D02AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F76BB-59B9-9447-BAD6-94BDA82E024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-21280" windowWidth="31660" windowHeight="15880" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="34560" windowHeight="20520" activeTab="7" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
     <sheet name="scenario_weights" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dependencies!$A$1:$H$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dependencies!$A$1:$H$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="307">
   <si>
     <t>configuration</t>
   </si>
@@ -112,18 +112,6 @@
     <t>operator</t>
   </si>
   <si>
-    <t>maximum_effect</t>
-  </si>
-  <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t>probability_of_success</t>
-  </si>
-  <si>
-    <t>saturation_point</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -553,9 +541,6 @@
     <t>Base case</t>
   </si>
   <si>
-    <t>squeezed *</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -773,13 +758,226 @@
   </si>
   <si>
     <t>EN</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>_me</t>
+  </si>
+  <si>
+    <t>_acc</t>
+  </si>
+  <si>
+    <t>_pos</t>
+  </si>
+  <si>
+    <t>_sp</t>
+  </si>
+  <si>
+    <t>TECU_me</t>
+  </si>
+  <si>
+    <t>TECU_acc</t>
+  </si>
+  <si>
+    <t>TECU_pos</t>
+  </si>
+  <si>
+    <t>TECU_sp</t>
+  </si>
+  <si>
+    <t>TECU_1</t>
+  </si>
+  <si>
+    <t>TECU_2</t>
+  </si>
+  <si>
+    <t>TECU_3</t>
+  </si>
+  <si>
+    <t>TECU_4</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>LAUS_me</t>
+  </si>
+  <si>
+    <t>LAUS_acc</t>
+  </si>
+  <si>
+    <t>LAUS_pos</t>
+  </si>
+  <si>
+    <t>LAUS_sp</t>
+  </si>
+  <si>
+    <t>LAUS_1</t>
+  </si>
+  <si>
+    <t>LAUS_2</t>
+  </si>
+  <si>
+    <t>LAUS_3</t>
+  </si>
+  <si>
+    <t>LAUS_4</t>
+  </si>
+  <si>
+    <t>LAUI_me</t>
+  </si>
+  <si>
+    <t>LAUI_acc</t>
+  </si>
+  <si>
+    <t>LAUI_pos</t>
+  </si>
+  <si>
+    <t>LAUI_sp</t>
+  </si>
+  <si>
+    <t>LAUI_1</t>
+  </si>
+  <si>
+    <t>LAUI_2</t>
+  </si>
+  <si>
+    <t>LAUI_3</t>
+  </si>
+  <si>
+    <t>LAUI_4</t>
+  </si>
+  <si>
+    <t>URUE_me</t>
+  </si>
+  <si>
+    <t>URUE_acc</t>
+  </si>
+  <si>
+    <t>URUE_pos</t>
+  </si>
+  <si>
+    <t>URUE_sp</t>
+  </si>
+  <si>
+    <t>URUE_1</t>
+  </si>
+  <si>
+    <t>URUE_2</t>
+  </si>
+  <si>
+    <t>URUE_3</t>
+  </si>
+  <si>
+    <t>URUE_4</t>
+  </si>
+  <si>
+    <t>SCUS_me</t>
+  </si>
+  <si>
+    <t>SCUS_acc</t>
+  </si>
+  <si>
+    <t>SCUS_pos</t>
+  </si>
+  <si>
+    <t>SCUS_sp</t>
+  </si>
+  <si>
+    <t>SCUS_1</t>
+  </si>
+  <si>
+    <t>SCUS_2</t>
+  </si>
+  <si>
+    <t>SCUS_3</t>
+  </si>
+  <si>
+    <t>SCUS_4</t>
+  </si>
+  <si>
+    <t>SCUT_me</t>
+  </si>
+  <si>
+    <t>SCUT_acc</t>
+  </si>
+  <si>
+    <t>SCUT_pos</t>
+  </si>
+  <si>
+    <t>SCUT_sp</t>
+  </si>
+  <si>
+    <t>SCUT_1</t>
+  </si>
+  <si>
+    <t>SCUT_2</t>
+  </si>
+  <si>
+    <t>SCUT_3</t>
+  </si>
+  <si>
+    <t>SCUT_4</t>
+  </si>
+  <si>
+    <t>HUSA_me</t>
+  </si>
+  <si>
+    <t>HUSA_acc</t>
+  </si>
+  <si>
+    <t>HUSA_pos</t>
+  </si>
+  <si>
+    <t>HUSA_sp</t>
+  </si>
+  <si>
+    <t>HUSA_1</t>
+  </si>
+  <si>
+    <t>HUSA_2</t>
+  </si>
+  <si>
+    <t>HUSA_3</t>
+  </si>
+  <si>
+    <t>HUSA_4</t>
+  </si>
+  <si>
+    <t>SPUAT</t>
+  </si>
+  <si>
+    <t>SPUAT_me</t>
+  </si>
+  <si>
+    <t>SPUAT_acc</t>
+  </si>
+  <si>
+    <t>SPUAT_pos</t>
+  </si>
+  <si>
+    <t>SPUAT_sp</t>
+  </si>
+  <si>
+    <t>SPUAT_1</t>
+  </si>
+  <si>
+    <t>SPUAT_2</t>
+  </si>
+  <si>
+    <t>SPUAT_3</t>
+  </si>
+  <si>
+    <t>SPUAT_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -814,6 +1012,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -841,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -864,12 +1075,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -887,6 +1107,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1458,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1242,10 +1466,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1271,12 +1495,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1284,7 +1508,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1292,7 +1516,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1300,7 +1524,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1308,7 +1532,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1316,7 +1540,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1324,7 +1548,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1350,12 +1574,12 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1363,7 +1587,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1371,7 +1595,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1399,7 +1623,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1407,238 +1631,238 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1887,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1671,10 +1895,10 @@
     </row>
     <row r="2" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1730,10 +1954,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1756,10 +1980,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1782,10 +2006,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1808,10 +2032,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1834,10 +2058,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1860,10 +2084,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1886,10 +2110,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1945,10 +2169,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1956,10 +2180,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1967,10 +2191,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>3234502</v>
@@ -1978,10 +2202,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1989,10 +2213,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>3234502</v>
@@ -2000,10 +2224,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>3234502</v>
@@ -2011,10 +2235,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2022,10 +2246,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>3234502</v>
@@ -2033,10 +2257,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2044,10 +2268,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2055,10 +2279,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>3881402.4</v>
@@ -2066,10 +2290,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>2587601.6</v>
@@ -2077,10 +2301,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2088,10 +2312,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2099,10 +2323,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2110,10 +2334,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1293800.8</v>
@@ -2121,10 +2345,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>1293800.8</v>
@@ -2132,10 +2356,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1293800.8</v>
@@ -2143,10 +2367,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>1293800.8</v>
@@ -2154,10 +2378,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>1293800.8</v>
@@ -2165,10 +2389,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2176,10 +2400,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>2587601.6</v>
@@ -2187,10 +2411,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>3881402.4</v>
@@ -2198,10 +2422,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2209,10 +2433,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2250,10 +2474,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C2">
         <v>2587601.6</v>
@@ -2261,10 +2485,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2587601.6</v>
@@ -2272,10 +2496,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>5175203.3470000001</v>
@@ -2283,10 +2507,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C5">
         <v>0.7</v>
@@ -2294,10 +2518,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.7</v>
@@ -2305,10 +2529,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -2316,10 +2540,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>36972</v>
@@ -2327,10 +2551,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>21384</v>
@@ -2338,10 +2562,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>27084</v>
@@ -2349,10 +2573,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>26796</v>
@@ -2360,10 +2584,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C12">
         <v>43512</v>
@@ -2371,10 +2595,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>25332</v>
@@ -2382,10 +2606,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C14">
         <v>34872</v>
@@ -2393,10 +2617,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C15">
         <v>30492</v>
@@ -2404,10 +2628,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>50052</v>
@@ -2415,10 +2639,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>34332</v>
@@ -2426,10 +2650,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>40776</v>
@@ -2437,10 +2661,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>34080</v>
@@ -2453,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2474,7 +2698,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>0.81</v>
@@ -2482,7 +2706,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0.81</v>
@@ -2490,7 +2714,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>0.37</v>
@@ -2498,7 +2722,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -2506,7 +2730,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3">
         <v>0.26600000000000001</v>
@@ -2514,7 +2738,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3">
         <v>0.26600000000000001</v>
@@ -2522,7 +2746,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3">
         <v>0.26600000000000001</v>
@@ -2530,7 +2754,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -2538,7 +2762,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0.15490000000000001</v>
@@ -2546,7 +2770,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>0.22900000000000001</v>
@@ -2554,7 +2778,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>2.1999999999999999E-2</v>
@@ -2562,7 +2786,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3">
         <v>7.3000000000000001E-3</v>
@@ -2570,7 +2794,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3">
         <v>7.3000000000000001E-3</v>
@@ -2578,7 +2802,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0.26</v>
@@ -2586,7 +2810,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>0.26</v>
@@ -2594,7 +2818,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>0.28999999999999998</v>
@@ -2602,7 +2826,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <v>0.28999999999999998</v>
@@ -2610,7 +2834,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <v>0.28999999999999998</v>
@@ -2618,7 +2842,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>4.1000000000000003E-3</v>
@@ -2626,7 +2850,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>0.82</v>
@@ -2634,7 +2858,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>0.82</v>
@@ -2642,7 +2866,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>9.1200000000000003E-2</v>
@@ -2650,7 +2874,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>0.7</v>
@@ -2658,7 +2882,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>0.26700000000000002</v>
@@ -2666,7 +2890,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>0.158</v>
@@ -2674,7 +2898,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>0.26</v>
@@ -2682,7 +2906,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B28">
         <v>0.36299999999999999</v>
@@ -2690,7 +2914,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>0.39100000000000001</v>
@@ -2698,7 +2922,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>0.20899999999999999</v>
@@ -2706,7 +2930,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B31">
         <v>0.46</v>
@@ -2714,7 +2938,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <v>0.46</v>
@@ -2722,7 +2946,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B33">
         <v>0.46</v>
@@ -2730,7 +2954,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -2738,7 +2962,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>-0.05</v>
@@ -2746,7 +2970,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>-0.05</v>
@@ -2754,7 +2978,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>20700</v>
@@ -2762,7 +2986,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B38">
         <v>6.0999999999999999E-2</v>
@@ -2770,7 +2994,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>0.19700000000000001</v>
@@ -2778,7 +3002,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <v>0.74199999999999999</v>
@@ -2786,7 +3010,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B41">
         <v>1532</v>
@@ -2794,7 +3018,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>24000</v>
@@ -2802,7 +3026,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B43">
         <v>3105</v>
@@ -2810,7 +3034,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B44">
         <v>3120</v>
@@ -2818,7 +3042,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B45">
         <v>3120</v>
@@ -2826,10 +3050,266 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B46">
         <v>14352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50">
+        <v>13774010.720000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58">
+        <v>7946938.7560000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>267</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62">
+        <v>8150945.2719999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70">
+        <v>15216753.91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>300</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>302</v>
+      </c>
+      <c r="B78">
+        <v>15216753.91</v>
       </c>
     </row>
   </sheetData>
@@ -2843,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2860,7 +3340,7 @@
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2873,1451 +3353,1874 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT(J2,K2)</f>
+        <v>SPUAT_me</v>
+      </c>
+      <c r="M2">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L5" si="0">_xlfn.CONCAT(J3,K3)</f>
+        <v>SPUAT_acc</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>SPUAT_pos</v>
+      </c>
+      <c r="M4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>SPUAT_sp</v>
+      </c>
+      <c r="M5">
+        <v>15216753.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2">
-        <v>0.47</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.71</v>
-      </c>
-      <c r="H2">
-        <v>13774010.720000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
         <v>169</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15">
-        <v>0.42</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.7</v>
-      </c>
-      <c r="H15">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16">
-        <v>0.65</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7</v>
-      </c>
-      <c r="H16">
-        <v>7946938.7560000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20">
-        <v>0.68</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6</v>
-      </c>
-      <c r="H20">
-        <v>8150945.2719999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
       <c r="D31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
+        <v>270</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>266</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
+        <v>103</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>120</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
         <v>118</v>
       </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
         <v>122</v>
       </c>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C74" t="s">
         <v>123</v>
       </c>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
         <v>124</v>
       </c>
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62">
-        <v>0.12</v>
-      </c>
-      <c r="F62">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="G62">
-        <v>0.7</v>
-      </c>
-      <c r="H62">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0.6</v>
-      </c>
-      <c r="H63">
-        <v>15216753.91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>151</v>
-      </c>
-      <c r="B71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>139</v>
-      </c>
-      <c r="B75" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75">
-        <v>0.22</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0.7</v>
-      </c>
-      <c r="H75">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0.6</v>
-      </c>
-      <c r="H76">
-        <v>15216753.91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
       <c r="D79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" t="s">
-        <v>30</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" t="s">
-        <v>139</v>
+      <c r="A81" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>147</v>
+      <c r="A83" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
+      <c r="A84" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" t="s">
-        <v>142</v>
+      <c r="A85" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>143</v>
+      <c r="A86" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" t="s">
-        <v>145</v>
+        <v>126</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="D87" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" t="s">
-        <v>77</v>
+        <v>127</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D91" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99" t="s">
         <v>161</v>
       </c>
-      <c r="C98" t="s">
-        <v>162</v>
-      </c>
-      <c r="D98" t="s">
-        <v>168</v>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>295</v>
+      </c>
+      <c r="B100" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>296</v>
+      </c>
+      <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>297</v>
+      </c>
+      <c r="B102" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" t="s">
+        <v>302</v>
+      </c>
+      <c r="D104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" t="s">
+        <v>303</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>305</v>
+      </c>
+      <c r="B106" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>306</v>
+      </c>
+      <c r="B107" t="s">
+        <v>305</v>
+      </c>
+      <c r="C107" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" t="s">
+        <v>306</v>
+      </c>
+      <c r="C108" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" t="s">
+        <v>140</v>
+      </c>
+      <c r="D118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" t="s">
+        <v>75</v>
+      </c>
+      <c r="D121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" t="s">
+        <v>73</v>
+      </c>
+      <c r="D122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" t="s">
+        <v>149</v>
+      </c>
+      <c r="D124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" t="s">
+        <v>151</v>
+      </c>
+      <c r="D125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" t="s">
+        <v>66</v>
+      </c>
+      <c r="D128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H98" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}"/>
+  <autoFilter ref="A1:H92" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4337,12 +5240,12 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4350,7 +5253,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>1</v>
